--- a/protocols/protocols.xlsx
+++ b/protocols/protocols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Miniprep" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Quikchange (Plasmid)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Quikchange" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sequence" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Gel Extraction" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
   <si>
     <t xml:space="preserve">To make a new protocol, copy a collection of these steps to a new page of this document. Fill in parameters as needed!</t>
   </si>
@@ -242,6 +242,27 @@
     <t xml:space="preserve">incubate 2 min</t>
   </si>
   <si>
+    <t xml:space="preserve">elution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4,C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasmid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">HF Buffer</t>
   </si>
   <si>
@@ -260,9 +281,6 @@
     <t xml:space="preserve">10 uM 3’ Primer</t>
   </si>
   <si>
-    <t xml:space="preserve">Plasmid</t>
-  </si>
-  <si>
     <t xml:space="preserve">(50,ng)</t>
   </si>
   <si>
@@ -299,9 +317,6 @@
     <t xml:space="preserve">(68,C)</t>
   </si>
   <si>
-    <t xml:space="preserve">(1,min/kb)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(12,C)</t>
   </si>
   <si>
@@ -338,9 +353,6 @@
     <t xml:space="preserve">(15,min)</t>
   </si>
   <si>
-    <t xml:space="preserve">(4,C)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(45,s)</t>
   </si>
   <si>
@@ -384,12 +396,6 @@
   </si>
   <si>
     <t xml:space="preserve">shaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINIPREP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEQUENCE</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,10 +528,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +541,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -561,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,85 +1002,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="19.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1074,16 +1089,15 @@
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1098,19 +1112,18 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1122,19 +1135,18 @@
       <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -1144,19 +1156,18 @@
       <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -1166,19 +1177,18 @@
       <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -1188,33 +1198,32 @@
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -1224,41 +1233,39 @@
       <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
@@ -1268,19 +1275,18 @@
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1292,7 +1298,6 @@
       <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -1314,7 +1319,25 @@
       <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1332,77 +1355,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1410,185 +1433,172 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>70</v>
+      <c r="C9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>103</v>
@@ -1597,46 +1607,48 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>108</v>
@@ -1645,207 +1657,240 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>25</v>
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="C43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="C47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="D51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1865,7 +1910,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
